--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H2">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N2">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O2">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P2">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q2">
-        <v>62.41730962515403</v>
+        <v>75.15055793812711</v>
       </c>
       <c r="R2">
-        <v>62.41730962515403</v>
+        <v>676.355021443144</v>
       </c>
       <c r="S2">
-        <v>0.008186158917046365</v>
+        <v>0.009227611709889135</v>
       </c>
       <c r="T2">
-        <v>0.008186158917046365</v>
+        <v>0.009227611709889137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H3">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P3">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q3">
-        <v>348.0089594413216</v>
+        <v>392.1633652666471</v>
       </c>
       <c r="R3">
-        <v>348.0089594413216</v>
+        <v>3529.470287399824</v>
       </c>
       <c r="S3">
-        <v>0.04564209293305584</v>
+        <v>0.04815308576289498</v>
       </c>
       <c r="T3">
-        <v>0.04564209293305584</v>
+        <v>0.04815308576289499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H4">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I4">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J4">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N4">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O4">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P4">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q4">
-        <v>337.6918274079524</v>
+        <v>396.1282022817076</v>
       </c>
       <c r="R4">
-        <v>337.6918274079524</v>
+        <v>3565.153820535368</v>
       </c>
       <c r="S4">
-        <v>0.0442889797838266</v>
+        <v>0.04863992148935885</v>
       </c>
       <c r="T4">
-        <v>0.0442889797838266</v>
+        <v>0.04863992148935886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H5">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I5">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J5">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N5">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O5">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P5">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q5">
-        <v>78.58974274422951</v>
+        <v>88.87053819976443</v>
       </c>
       <c r="R5">
-        <v>78.58974274422951</v>
+        <v>799.8348437978798</v>
       </c>
       <c r="S5">
-        <v>0.0103072068824765</v>
+        <v>0.01091226521074493</v>
       </c>
       <c r="T5">
-        <v>0.0103072068824765</v>
+        <v>0.01091226521074493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H6">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J6">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N6">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O6">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P6">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q6">
-        <v>255.9728831349097</v>
+        <v>274.8370513284329</v>
       </c>
       <c r="R6">
-        <v>255.9728831349097</v>
+        <v>2473.533461955897</v>
       </c>
       <c r="S6">
-        <v>0.03357137166566457</v>
+        <v>0.03374678329384673</v>
       </c>
       <c r="T6">
-        <v>0.03357137166566457</v>
+        <v>0.03374678329384674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H7">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J7">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P7">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q7">
-        <v>1427.181934625961</v>
+        <v>1434.201234243113</v>
       </c>
       <c r="R7">
-        <v>1427.181934625961</v>
+        <v>12907.81110818802</v>
       </c>
       <c r="S7">
-        <v>0.1871778548378432</v>
+        <v>0.1761031782935692</v>
       </c>
       <c r="T7">
-        <v>0.1871778548378432</v>
+        <v>0.1761031782935693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H8">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J8">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N8">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O8">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P8">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q8">
-        <v>1384.871459404826</v>
+        <v>1448.701247870613</v>
       </c>
       <c r="R8">
-        <v>1384.871459404826</v>
+        <v>13038.31123083551</v>
       </c>
       <c r="S8">
-        <v>0.1816287487309631</v>
+        <v>0.1778836107908612</v>
       </c>
       <c r="T8">
-        <v>0.1816287487309631</v>
+        <v>0.1778836107908612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H9">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J9">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N9">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O9">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P9">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q9">
-        <v>322.2959008627992</v>
+        <v>325.0131115314355</v>
       </c>
       <c r="R9">
-        <v>322.2959008627992</v>
+        <v>2925.11800378292</v>
       </c>
       <c r="S9">
-        <v>0.04226977225740982</v>
+        <v>0.0399078180670886</v>
       </c>
       <c r="T9">
-        <v>0.04226977225740982</v>
+        <v>0.03990781806708862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H10">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I10">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J10">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N10">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O10">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P10">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q10">
-        <v>168.3731183831474</v>
+        <v>193.6982715510725</v>
       </c>
       <c r="R10">
-        <v>168.3731183831474</v>
+        <v>1743.284443959652</v>
       </c>
       <c r="S10">
-        <v>0.02208248181026441</v>
+        <v>0.02378388780854481</v>
       </c>
       <c r="T10">
-        <v>0.02208248181026441</v>
+        <v>0.02378388780854481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H11">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I11">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J11">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P11">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q11">
-        <v>938.7676924606792</v>
+        <v>1010.789115901733</v>
       </c>
       <c r="R11">
-        <v>938.7676924606792</v>
+        <v>9097.102043115592</v>
       </c>
       <c r="S11">
-        <v>0.1231213194356431</v>
+        <v>0.1241131102420098</v>
       </c>
       <c r="T11">
-        <v>0.1231213194356431</v>
+        <v>0.1241131102420098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H12">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I12">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J12">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N12">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O12">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P12">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q12">
-        <v>910.9368278549904</v>
+        <v>1021.008362409938</v>
       </c>
       <c r="R12">
-        <v>910.9368278549904</v>
+        <v>9189.075261689444</v>
       </c>
       <c r="S12">
-        <v>0.1194712441307447</v>
+        <v>0.1253679144820928</v>
       </c>
       <c r="T12">
-        <v>0.1194712441307447</v>
+        <v>0.1253679144820928</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H13">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I13">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J13">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N13">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O13">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P13">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q13">
-        <v>211.9988852169725</v>
+        <v>229.0611023178378</v>
       </c>
       <c r="R13">
-        <v>211.9988852169725</v>
+        <v>2061.54992086054</v>
       </c>
       <c r="S13">
-        <v>0.02780409112544356</v>
+        <v>0.02812603083756786</v>
       </c>
       <c r="T13">
-        <v>0.02780409112544356</v>
+        <v>0.02812603083756786</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H14">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I14">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J14">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N14">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O14">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P14">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q14">
-        <v>88.91234352674492</v>
+        <v>98.9952475039379</v>
       </c>
       <c r="R14">
-        <v>88.91234352674492</v>
+        <v>890.9572275354411</v>
       </c>
       <c r="S14">
-        <v>0.01166103726943768</v>
+        <v>0.01215546138516768</v>
       </c>
       <c r="T14">
-        <v>0.01166103726943768</v>
+        <v>0.01215546138516768</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H15">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I15">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J15">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P15">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q15">
-        <v>495.7325514036918</v>
+        <v>516.5937615328429</v>
       </c>
       <c r="R15">
-        <v>495.7325514036918</v>
+        <v>4649.343853795586</v>
       </c>
       <c r="S15">
-        <v>0.06501634675564508</v>
+        <v>0.06343168665628322</v>
       </c>
       <c r="T15">
-        <v>0.06501634675564508</v>
+        <v>0.06343168665628324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H16">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I16">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J16">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N16">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O16">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P16">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q16">
-        <v>481.035980964007</v>
+        <v>521.8166106025975</v>
       </c>
       <c r="R16">
-        <v>481.035980964007</v>
+        <v>4696.349495423377</v>
       </c>
       <c r="S16">
-        <v>0.06308886122515144</v>
+        <v>0.06407299158544595</v>
       </c>
       <c r="T16">
-        <v>0.06308886122515144</v>
+        <v>0.06407299158544597</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H17">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I17">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J17">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N17">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O17">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P17">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q17">
-        <v>111.9496858566531</v>
+        <v>117.0684711634105</v>
       </c>
       <c r="R17">
-        <v>111.9496858566531</v>
+        <v>1053.616240470695</v>
       </c>
       <c r="S17">
-        <v>0.01468243223938408</v>
+        <v>0.01437464238463414</v>
       </c>
       <c r="T17">
-        <v>0.01468243223938408</v>
+        <v>0.01437464238463414</v>
       </c>
     </row>
   </sheetData>
